--- a/prep_and_checklists/Urby  /PREP_REQ_Urby  _Wednesday, January 7, 2026  _0.xlsx
+++ b/prep_and_checklists/Urby  /PREP_REQ_Urby  _Wednesday, January 7, 2026  _0.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="60.75" customHeight="1" s="15">
       <c r="A1" s="13" t="inlineStr">
         <is>
-          <t>EVENT PREP 12-31-2025</t>
+          <t>Urby   - 12-31-2025</t>
         </is>
       </c>
       <c r="B1" s="16" t="n"/>
@@ -592,7 +592,7 @@
       <c r="B3" s="17" t="n"/>
       <c r="C3" s="17" t="inlineStr">
         <is>
-          <t>starter</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D3" s="18" t="inlineStr">
@@ -628,7 +628,7 @@
       <c r="B4" s="17" t="n"/>
       <c r="C4" s="17" t="inlineStr">
         <is>
-          <t>starter</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D4" s="18" t="inlineStr">
@@ -664,7 +664,7 @@
       <c r="B5" s="17" t="n"/>
       <c r="C5" s="17" t="inlineStr">
         <is>
-          <t>starter</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D5" s="18" t="inlineStr">
@@ -700,7 +700,7 @@
       <c r="B6" s="17" t="n"/>
       <c r="C6" s="17" t="inlineStr">
         <is>
-          <t>canapes</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D6" s="19" t="inlineStr">
@@ -736,7 +736,7 @@
       <c r="B7" s="17" t="n"/>
       <c r="C7" s="17" t="inlineStr">
         <is>
-          <t>entree</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D7" s="17" t="inlineStr">
@@ -772,7 +772,7 @@
       <c r="B8" s="17" t="n"/>
       <c r="C8" s="17" t="inlineStr">
         <is>
-          <t>entree</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="B9" s="17" t="n"/>
       <c r="C9" s="17" t="inlineStr">
         <is>
-          <t>entree</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D9" s="18" t="inlineStr">
@@ -844,7 +844,7 @@
       <c r="B10" s="17" t="n"/>
       <c r="C10" s="17" t="inlineStr">
         <is>
-          <t>entree</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D10" s="18" t="inlineStr">
@@ -880,7 +880,7 @@
       <c r="B11" s="17" t="n"/>
       <c r="C11" s="17" t="inlineStr">
         <is>
-          <t>station entrees</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D11" s="18" t="inlineStr">
@@ -916,7 +916,7 @@
       <c r="B12" s="17" t="n"/>
       <c r="C12" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">station sides </t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D12" s="19" t="inlineStr">
@@ -952,7 +952,7 @@
       <c r="B13" s="17" t="n"/>
       <c r="C13" s="17" t="inlineStr">
         <is>
-          <t>station salad</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D13" s="19" t="inlineStr">
@@ -988,7 +988,7 @@
       <c r="B14" s="17" t="n"/>
       <c r="C14" s="17" t="inlineStr">
         <is>
-          <t>station salad</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D14" s="17" t="inlineStr">
@@ -1024,7 +1024,7 @@
       <c r="B15" s="17" t="n"/>
       <c r="C15" s="17" t="inlineStr">
         <is>
-          <t>station salad</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D15" s="19" t="inlineStr">
@@ -1060,7 +1060,7 @@
       <c r="B16" s="17" t="n"/>
       <c r="C16" s="17" t="inlineStr">
         <is>
-          <t>canapes</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D16" s="19" t="inlineStr">
@@ -1096,7 +1096,7 @@
       <c r="B17" s="17" t="n"/>
       <c r="C17" s="17" t="inlineStr">
         <is>
-          <t>entree</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D17" s="19" t="inlineStr">
@@ -1126,7 +1126,11 @@
     <row r="18" ht="21" customHeight="1" s="15">
       <c r="A18" s="17" t="inlineStr"/>
       <c r="B18" s="17" t="n"/>
-      <c r="C18" s="17" t="inlineStr"/>
+      <c r="C18" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urby  </t>
+        </is>
+      </c>
       <c r="D18" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">Wednesday, January 7, 2026  , before 5:30 PM </t>
@@ -1160,7 +1164,7 @@
       <c r="B19" s="17" t="n"/>
       <c r="C19" s="17" t="inlineStr">
         <is>
-          <t>sandwiches</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D19" s="19" t="inlineStr">
@@ -1196,7 +1200,7 @@
       <c r="B20" s="17" t="n"/>
       <c r="C20" s="17" t="inlineStr">
         <is>
-          <t>entree</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D20" s="17" t="inlineStr">
@@ -1232,7 +1236,7 @@
       <c r="B21" s="17" t="n"/>
       <c r="C21" s="17" t="inlineStr">
         <is>
-          <t>canapes/raw bar</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D21" s="19" t="inlineStr">
@@ -1268,7 +1272,7 @@
       <c r="B22" s="17" t="n"/>
       <c r="C22" s="17" t="inlineStr">
         <is>
-          <t>canapes/raw bar</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D22" s="19" t="inlineStr">
@@ -1304,7 +1308,7 @@
       <c r="B23" s="17" t="n"/>
       <c r="C23" s="17" t="inlineStr">
         <is>
-          <t>canapes</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D23" s="17" t="inlineStr">
@@ -1340,7 +1344,7 @@
       <c r="B24" s="17" t="n"/>
       <c r="C24" s="17" t="inlineStr">
         <is>
-          <t>canapes</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D24" s="17" t="inlineStr">
@@ -1376,7 +1380,7 @@
       <c r="B25" s="17" t="n"/>
       <c r="C25" s="17" t="inlineStr">
         <is>
-          <t>canapes</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D25" s="17" t="inlineStr">
@@ -1406,7 +1410,11 @@
     <row r="26" ht="21" customHeight="1" s="15">
       <c r="A26" s="17" t="inlineStr"/>
       <c r="B26" s="17" t="n"/>
-      <c r="C26" s="17" t="inlineStr"/>
+      <c r="C26" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urby  </t>
+        </is>
+      </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
           <t xml:space="preserve">Wednesday, January 7, 2026  , before 5:30 PM </t>
@@ -1440,7 +1448,7 @@
       <c r="B27" s="17" t="n"/>
       <c r="C27" s="17" t="inlineStr">
         <is>
-          <t>canapes</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D27" s="17" t="inlineStr">
@@ -1476,7 +1484,7 @@
       <c r="B28" s="17" t="n"/>
       <c r="C28" s="17" t="inlineStr">
         <is>
-          <t>canapes</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D28" s="19" t="inlineStr">
@@ -1512,7 +1520,7 @@
       <c r="B29" s="17" t="n"/>
       <c r="C29" s="17" t="inlineStr">
         <is>
-          <t>canapes</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D29" s="19" t="inlineStr">
@@ -1548,7 +1556,7 @@
       <c r="B30" s="17" t="n"/>
       <c r="C30" s="17" t="inlineStr">
         <is>
-          <t>canapes</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D30" s="19" t="inlineStr">
@@ -1578,7 +1586,11 @@
     <row r="31" ht="21" customHeight="1" s="15">
       <c r="A31" s="17" t="inlineStr"/>
       <c r="B31" s="17" t="n"/>
-      <c r="C31" s="17" t="inlineStr"/>
+      <c r="C31" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urby  </t>
+        </is>
+      </c>
       <c r="D31" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">Wednesday, January 7, 2026  , before 5:30 PM </t>
@@ -1606,7 +1618,11 @@
     <row r="32" ht="21" customHeight="1" s="15">
       <c r="A32" s="17" t="inlineStr"/>
       <c r="B32" s="17" t="n"/>
-      <c r="C32" s="17" t="inlineStr"/>
+      <c r="C32" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urby  </t>
+        </is>
+      </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">Wednesday, January 7, 2026  , before 5:30 PM </t>
@@ -1640,7 +1656,7 @@
       <c r="B33" s="17" t="n"/>
       <c r="C33" s="17" t="inlineStr">
         <is>
-          <t>small plates</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D33" s="19" t="inlineStr">
@@ -1676,7 +1692,7 @@
       <c r="B34" s="17" t="n"/>
       <c r="C34" s="17" t="inlineStr">
         <is>
-          <t>small plates</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D34" s="19" t="inlineStr">
@@ -1712,7 +1728,7 @@
       <c r="B35" s="17" t="n"/>
       <c r="C35" s="17" t="inlineStr">
         <is>
-          <t>small plates</t>
+          <t xml:space="preserve">Urby  </t>
         </is>
       </c>
       <c r="D35" s="19" t="inlineStr">
@@ -1742,7 +1758,11 @@
     <row r="36" ht="21" customHeight="1" s="15">
       <c r="A36" s="17" t="inlineStr"/>
       <c r="B36" s="17" t="n"/>
-      <c r="C36" s="17" t="inlineStr"/>
+      <c r="C36" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urby  </t>
+        </is>
+      </c>
       <c r="D36" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">Wednesday, January 7, 2026  , before 5:30 PM </t>
@@ -1770,7 +1790,11 @@
     <row r="37" ht="21" customHeight="1" s="15">
       <c r="A37" s="17" t="inlineStr"/>
       <c r="B37" s="17" t="n"/>
-      <c r="C37" s="17" t="inlineStr"/>
+      <c r="C37" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urby  </t>
+        </is>
+      </c>
       <c r="D37" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">Wednesday, January 7, 2026  , before 5:30 PM </t>
